--- a/data/trans_bre/P20_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>-2,17%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 10,41</t>
+          <t>-32,45; 20,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 18,14</t>
+          <t>-34,72; 24,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-49,99; 53,13</t>
+          <t>-70,55; 127,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 97,86</t>
+          <t>-58,62; 132,4</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,01</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,94</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,72%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82,34%</t>
+          <t>53,35%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 20,56</t>
+          <t>-0,52; 18,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 20,62</t>
+          <t>1,83; 20,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,88; 119,86</t>
+          <t>-3,36; 110,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,06; 149,02</t>
+          <t>6,57; 139,92</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,14</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>86,56%</t>
+          <t>60,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>132,96%</t>
+          <t>133,65%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 20,62</t>
+          <t>0,42; 19,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 23,84</t>
+          <t>5,58; 22,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,17; 189,12</t>
+          <t>1,38; 164,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,57; 281,69</t>
+          <t>31,92; 330,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>68,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 17,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,16; 91,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,57; 120,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,9</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,29</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>37,02%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>52,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 15,11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 16,34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 88,14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 104,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P20_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,75%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.5590350842316794</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1075440795147986</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.01753898313736074</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.0028157841413635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-32,45; 20,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-34,72; 24,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-70,55; 127,55</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-58,62; 132,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-32.44592894063636</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-31.42839489736825</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.7054744926112303</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5722374429949144</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.39678044097807</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.86430481169744</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.275544118165234</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.218154292222697</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,69</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,65</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>39,33%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>53,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 18,63</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 20,82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 110,13</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 139,92</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.694146094456118</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>13.29256490272282</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.3932670791385786</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.6651666494573055</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,95</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>60,09%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>133,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.5245736787772375</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3.801288579661351</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.03358235167490365</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.1430135597656842</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 19,67</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 22,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 164,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>31,92; 330,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.62949191984144</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>23.87425026027428</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.101272694709963</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.646320080202573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>9.949312262998919</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>13.25572923410577</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.6009092631204704</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1.082445410693416</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.4198714683101788</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.064378423322345</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.01379639543445581</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.03716680314032868</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>19.67175825105754</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.86239130832291</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.645871913654379</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.698650073240145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,9</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10,29</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>37,02%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>52,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 15,11</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 16,34</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 88,14</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 104,99</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>7.900942017966472</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.27670947898726</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.3701948645363754</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.578515566169703</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1382278475162728</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.649122729120277</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.005445425453920465</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.05332781150064982</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.11154264326664</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>17.32356331498089</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.8813800335715949</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.130190390822661</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
